--- a/data/E nominal esperado Trim-Trim 3Tr2016 a 4Tr2020 BCRA REM.xlsx
+++ b/data/E nominal esperado Trim-Trim 3Tr2016 a 4Tr2020 BCRA REM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AA0E6B-0B38-5D47-9BB0-41D3BDA85FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A712CB-84C6-0541-BAB1-C7A9ECC7865C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cuadros de Resultados" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cuadros de Resultados'!$B$1:$C$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cuadros de Resultados'!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Fecha del pronóstico</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>4q2017 e</t>
+  </si>
+  <si>
+    <t>trimestre</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>3ºTr</t>
+  </si>
+  <si>
+    <t>4ºTr</t>
+  </si>
+  <si>
+    <t>1ºTr</t>
+  </si>
+  <si>
+    <t>2ºTr</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,6 +342,39 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,223 +727,337 @@
     <tabColor theme="3" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="2" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="4">
         <v>15.261044496130651</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="4">
         <v>15.656296812848042</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="4">
         <v>16.197641312863208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="4">
         <v>15.816115135074057</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="11">
         <v>17.044891140070973</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="6">
         <v>17.852183819325262</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="4">
         <v>18.862886111111099</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2018</v>
+      </c>
+      <c r="E9" s="4">
         <v>21.079953981592606</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="15">
         <v>29.802042483299616</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="21">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="4">
         <v>40.665113205533032</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2019</v>
+      </c>
+      <c r="E12" s="4">
         <v>39.587661499489279</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="10">
         <v>46.998264757275479</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="25">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="10">
         <v>47.157991941327218</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2019</v>
+      </c>
+      <c r="E15" s="10">
         <v>62.25662265160522</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="10">
         <v>62.729854719661724</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="25">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="10">
         <v>68.013323108608532</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="10">
         <v>74.80831960131394</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="27">
+        <v>2020</v>
+      </c>
+      <c r="E19" s="16">
         <v>81.333805652312307</v>
       </c>
     </row>
